--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F932C262-F705-408C-929A-67DE6F0E8101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B975BD05-6866-4B14-8BA9-7C555D5DF898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="2" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -31,8 +31,8 @@
     <sheet name="scenarios" sheetId="9" r:id="rId16"/>
     <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
     <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
-    <sheet name="constraints" sheetId="14" r:id="rId19"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId19"/>
+    <sheet name="constraints" sheetId="14" r:id="rId20"/>
     <sheet name="gen_constraint" sheetId="15" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>node</t>
   </si>
@@ -169,9 +169,6 @@
     <t>s2</t>
   </si>
   <si>
-    <t>s3</t>
-  </si>
-  <si>
     <t>start_cost</t>
   </si>
   <si>
@@ -235,18 +232,12 @@
     <t>npe,up,s2</t>
   </si>
   <si>
-    <t>npe,up,s3</t>
-  </si>
-  <si>
     <t>npe,dw,s1</t>
   </si>
   <si>
     <t>npe,dw,s2</t>
   </si>
   <si>
-    <t>npe,dw,s3</t>
-  </si>
-  <si>
     <t>reserve_up</t>
   </si>
   <si>
@@ -256,91 +247,88 @@
     <t>reserve_up, s2</t>
   </si>
   <si>
-    <t>reserve_up, s3</t>
-  </si>
-  <si>
-    <t>reserve_up, s4</t>
-  </si>
-  <si>
-    <t>npe,up,s4</t>
-  </si>
-  <si>
-    <t>npe,dw,s4</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
     <t>ng, s1</t>
   </si>
   <si>
     <t>ng, s2</t>
   </si>
   <si>
-    <t>ng, s3</t>
-  </si>
-  <si>
-    <t>ng, s4</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>wt</t>
-  </si>
-  <si>
-    <t>gt,eff</t>
-  </si>
-  <si>
-    <t>gt,op</t>
-  </si>
-  <si>
-    <t>wt,s1</t>
-  </si>
-  <si>
-    <t>wt,s2</t>
-  </si>
-  <si>
-    <t>wt,s3</t>
-  </si>
-  <si>
-    <t>wt,s4</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>npe,s1</t>
   </si>
   <si>
     <t>npe,s2</t>
   </si>
   <si>
-    <t>npe,s3</t>
-  </si>
-  <si>
-    <t>npe,s4</t>
-  </si>
-  <si>
     <t>max_online</t>
   </si>
   <si>
     <t>max_offline</t>
   </si>
   <si>
-    <t>elc_sto</t>
-  </si>
-  <si>
-    <t>elc_sto_charge</t>
-  </si>
-  <si>
-    <t>elc_sto_discharge</t>
-  </si>
-  <si>
     <t>entity</t>
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>ngchp</t>
+  </si>
+  <si>
+    <t>heatpump</t>
+  </si>
+  <si>
+    <t>windturb</t>
+  </si>
+  <si>
+    <t>windturb,s1</t>
+  </si>
+  <si>
+    <t>windturb,s2</t>
+  </si>
+  <si>
+    <t>heat,s1</t>
+  </si>
+  <si>
+    <t>heat,s2</t>
+  </si>
+  <si>
+    <t>reserve_down</t>
+  </si>
+  <si>
+    <t>res_down</t>
+  </si>
+  <si>
+    <t>reserve_down, s1</t>
+  </si>
+  <si>
+    <t>reserve_down, s2</t>
+  </si>
+  <si>
+    <t>ngchp_c1</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>ngchp_c1,ngchp,elc,s1</t>
+  </si>
+  <si>
+    <t>ngchp_c1,ngchp,heat,s1</t>
+  </si>
+  <si>
+    <t>ngchp_c1,s1</t>
+  </si>
+  <si>
+    <t>ngchp_c1,ngchp,elc,s2</t>
+  </si>
+  <si>
+    <t>ngchp_c1,ngchp,heat,s2</t>
+  </si>
+  <si>
+    <t>ngchp_c1,s2</t>
   </si>
 </sst>
 </file>
@@ -458,465 +446,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>gt efficiency</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>efficiencies!$B$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>efficiencies!$B$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-275F-4427-9D23-4C9FA322921F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="997896336"/>
-        <c:axId val="997897168"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="997896336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fi-FI"/>
-                  <a:t>Load</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fi-FI"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="997897168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="997897168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.25"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fi-FI"/>
-                  <a:t>Efficiency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fi-FI"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="997896336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fi-FI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>wt capacity factor</a:t>
             </a:r>
@@ -967,7 +496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt,s1</c:v>
+                  <c:v>windturb,s1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1090,7 +619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt,s2</c:v>
+                  <c:v>windturb,s2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1201,252 +730,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B99E-46DA-8324-0F74D8E3F999}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cf!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wt,s3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cf!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>d:m:yyyy\ h\:mm;@</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44671.041666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44671.08333321759</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44671.124999826388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44671.166666435187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44671.208333043978</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44671.249999537038</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44671.291666087964</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44671.333332638889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44671.374999189815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cf!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B99E-46DA-8324-0F74D8E3F999}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cf!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wt,s4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>cf!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>d:m:yyyy\ h\:mm;@</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44671.041666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44671.08333321759</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44671.124999826388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44671.166666435187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44671.208333043978</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44671.249999537038</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44671.291666087964</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44671.333332638889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44671.374999189815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>cf!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B99E-46DA-8324-0F74D8E3F999}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1785,7 +1068,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1959,34 +1242,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.36</c:v>
+                  <c:v>16.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.6</c:v>
+                  <c:v>23.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.3</c:v>
+                  <c:v>64.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.6</c:v>
+                  <c:v>43.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.3</c:v>
+                  <c:v>64.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.3</c:v>
+                  <c:v>85.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130</c:v>
+                  <c:v>141.19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.42</c:v>
+                  <c:v>72.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.6</c:v>
+                  <c:v>31.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.42</c:v>
+                  <c:v>11.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,34 +1365,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14.27</c:v>
+                  <c:v>15.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>7.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.6</c:v>
+                  <c:v>36.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.6</c:v>
+                  <c:v>28.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.700000000000003</c:v>
+                  <c:v>47.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.7</c:v>
+                  <c:v>33.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.3</c:v>
+                  <c:v>68.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.400000000000006</c:v>
+                  <c:v>64.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.5</c:v>
+                  <c:v>9.58</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.8</c:v>
+                  <c:v>23.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,252 +1401,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A229-4D07-A893-5EF628D3BE67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>market_prices!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>npe,s3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>market_prices!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>d:m:yyyy\ h\:mm;@</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44671.041666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44671.08333321759</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44671.124999826388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44671.166666435187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44671.208333043978</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44671.249999537038</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44671.291666087964</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44671.333332638889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44671.374999189815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>market_prices!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10.62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>182.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A229-4D07-A893-5EF628D3BE67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>market_prices!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>npe,s4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>market_prices!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>d:m:yyyy\ h\:mm;@</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44671.041666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44671.08333321759</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44671.124999826388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44671.166666435187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44671.208333043978</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44671.249999537038</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44671.291666087964</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44671.333332638889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44671.374999189815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>market_prices!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10.89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>87.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>220.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A229-4D07-A893-5EF628D3BE67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2697,7 +1734,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2732,11 +1769,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>Reserve up </a:t>
+              <a:t>Reserve </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fi-FI" baseline="0"/>
-              <a:t>market price (npe)</a:t>
+              <a:t>market prices (npe)</a:t>
             </a:r>
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
@@ -2750,26 +1787,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2788,43 +1805,217 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>market_prices!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reserve_up, s1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>market_prices!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>d:m:yyyy\ h\:mm;@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44671.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44671.08333321759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44671.124999826388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44671.166666435187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44671.208333043978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44671.249999537038</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44671.291666087964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44671.333332638889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44671.374999189815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>market_prices!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>309.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>319.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>231.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>281.91000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-11BB-4342-A2EB-312AE397747C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>market_prices!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reserve_up, s2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>market_prices!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>d:m:yyyy\ h\:mm;@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44671.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44671.08333321759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44671.124999826388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44671.166666435187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44671.208333043978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44671.249999537038</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44671.291666087964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44671.333332638889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44671.374999189815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>market_prices!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>270.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>241.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-11BB-4342-A2EB-312AE397747C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>market_prices!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reserve_up, s1</c:v>
+                  <c:v>reserve_down, s1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>market_prices!$A$2:$A$11</c:f>
@@ -2871,34 +2062,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>280.2</c:v>
+                  <c:v>84.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.3</c:v>
+                  <c:v>192.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205.2</c:v>
+                  <c:v>322.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>276.89999999999998</c:v>
+                  <c:v>167.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>292.39999999999998</c:v>
+                  <c:v>149.66999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>296.3</c:v>
+                  <c:v>167.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.9</c:v>
+                  <c:v>277.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.8</c:v>
+                  <c:v>212.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>206.3</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>235.8</c:v>
+                  <c:v>82.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,48 +2097,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82B2-4C23-B6D5-AC83377C789A}"/>
+              <c16:uniqueId val="{00000007-11BB-4342-A2EB-312AE397747C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>market_prices!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reserve_up, s2</c:v>
+                  <c:v>reserve_down, s2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>market_prices!$A$2:$A$11</c:f>
@@ -2994,34 +2161,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>291.10000000000002</c:v>
+                  <c:v>134.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.5</c:v>
+                  <c:v>271.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>275</c:v>
+                  <c:v>53.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.1</c:v>
+                  <c:v>220.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>295.8</c:v>
+                  <c:v>171.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>205.1</c:v>
+                  <c:v>397.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298.89999999999998</c:v>
+                  <c:v>191.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>232.3</c:v>
+                  <c:v>265.85000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>299.97000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.3</c:v>
+                  <c:v>220.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,253 +2196,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-82B2-4C23-B6D5-AC83377C789A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>market_prices!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>reserve_up, s3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>market_prices!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>d:m:yyyy\ h\:mm;@</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44671.041666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44671.08333321759</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44671.124999826388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44671.166666435187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44671.208333043978</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44671.249999537038</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44671.291666087964</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44671.333332638889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44671.374999189815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>market_prices!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>108.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>218.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>286.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>123.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>136.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>286.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>203.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-82B2-4C23-B6D5-AC83377C789A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>market_prices!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>reserve_up, s4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>market_prices!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>d:m:yyyy\ h\:mm;@</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44671.041666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44671.08333321759</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44671.124999826388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44671.166666435187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44671.208333043978</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44671.249999537038</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44671.291666087964</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44671.333332638889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44671.374999189815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>market_prices!$I$2:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>160.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>239.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>242.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>192.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>296.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>185.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>194.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>278.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>260.10000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-82B2-4C23-B6D5-AC83377C789A}"/>
+              <c16:uniqueId val="{00000008-11BB-4342-A2EB-312AE397747C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3346,26 +2267,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fi-FI"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="d:m:yyyy\ h\:mm;@" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3469,26 +2370,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fi-FI"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3531,13 +2412,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3572,30 +2446,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3655,86 +2508,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4806,1080 +3579,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>355281</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>40957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>584834</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FE6CCC-FB0C-4B47-B1BD-50C9609C013D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5920,7 +3620,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5930,7 +3630,7 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>99059</xdr:rowOff>
@@ -5960,16 +3660,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>299309</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
+      <xdr:rowOff>120351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>513399</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>589823</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>145116</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6484,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="E1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6499,12 +4199,24 @@
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
+      <c r="B2">
+        <v>-9</v>
+      </c>
+      <c r="C2">
+        <v>-4</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -6513,6 +4225,12 @@
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
+      <c r="B3">
+        <v>-5</v>
+      </c>
+      <c r="C3">
+        <v>-9</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
@@ -6521,6 +4239,12 @@
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
+      <c r="B4">
+        <v>-6</v>
+      </c>
+      <c r="C4">
+        <v>-4</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -6529,6 +4253,12 @@
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
+      <c r="B5">
+        <v>-9</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
@@ -6537,6 +4267,12 @@
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -6545,6 +4281,12 @@
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
+      <c r="B7">
+        <v>-7</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -6553,6 +4295,12 @@
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
+        <v>-8</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -6561,6 +4309,12 @@
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-9</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
@@ -6569,6 +4323,12 @@
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
+      <c r="B10">
+        <v>-9</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
@@ -6576,6 +4336,12 @@
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
+      </c>
+      <c r="B11">
+        <v>-4</v>
+      </c>
+      <c r="C11">
+        <v>-9</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6701,10 +4467,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6712,150 +4478,102 @@
     <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6864,76 +4582,58 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -7001,10 +4701,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7032,13 +4732,13 @@
         <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7066,7 +4766,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>29</v>
@@ -7075,15 +4775,38 @@
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="7">
         <v>0.2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7094,351 +4817,280 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="16" width="11.140625" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
-        <v>13.36</v>
+        <v>16.12</v>
       </c>
       <c r="C2">
-        <v>14.27</v>
+        <v>15.72</v>
       </c>
       <c r="D2">
-        <v>10.62</v>
+        <v>309.72000000000003</v>
       </c>
       <c r="E2">
-        <v>10.89</v>
+        <v>270.25</v>
       </c>
       <c r="F2">
-        <v>280.2</v>
+        <v>84.13</v>
       </c>
       <c r="G2">
-        <v>291.10000000000002</v>
-      </c>
-      <c r="H2">
-        <v>108.1</v>
-      </c>
-      <c r="I2">
-        <v>160.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>134.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
-        <v>25.6</v>
+        <v>23.68</v>
       </c>
       <c r="C3">
-        <v>8.3000000000000007</v>
+        <v>7.11</v>
       </c>
       <c r="D3">
-        <v>8.6</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="E3">
-        <v>14.7</v>
+        <v>275.08</v>
       </c>
       <c r="F3">
-        <v>284.3</v>
+        <v>192.99</v>
       </c>
       <c r="G3">
-        <v>212.5</v>
-      </c>
-      <c r="H3">
-        <v>218.3</v>
-      </c>
-      <c r="I3">
-        <v>239.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>271.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
-        <v>72.3</v>
+        <v>64.53</v>
       </c>
       <c r="C4">
-        <v>40.6</v>
+        <v>36.51</v>
       </c>
       <c r="D4">
-        <v>28.6</v>
+        <v>224.57</v>
       </c>
       <c r="E4">
-        <v>87.3</v>
+        <v>213.37</v>
       </c>
       <c r="F4">
-        <v>205.2</v>
+        <v>322.2</v>
       </c>
       <c r="G4">
-        <v>275</v>
-      </c>
-      <c r="H4">
-        <v>286.8</v>
-      </c>
-      <c r="I4">
-        <v>61.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
-        <v>45.6</v>
+        <v>43.86</v>
       </c>
       <c r="C5">
-        <v>37.6</v>
+        <v>28.26</v>
       </c>
       <c r="D5">
-        <v>80.3</v>
+        <v>319.64999999999998</v>
       </c>
       <c r="E5">
-        <v>40.6</v>
+        <v>94.3</v>
       </c>
       <c r="F5">
-        <v>276.89999999999998</v>
+        <v>167.48</v>
       </c>
       <c r="G5">
-        <v>117.1</v>
-      </c>
-      <c r="H5">
-        <v>165.6</v>
-      </c>
-      <c r="I5">
-        <v>242.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>220.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
-        <v>50.3</v>
+        <v>64.95</v>
       </c>
       <c r="C6">
-        <v>36.700000000000003</v>
+        <v>47.09</v>
       </c>
       <c r="D6">
-        <v>73.099999999999994</v>
+        <v>231.98</v>
       </c>
       <c r="E6">
-        <v>98.2</v>
+        <v>330.96</v>
       </c>
       <c r="F6">
-        <v>292.39999999999998</v>
+        <v>149.66999999999999</v>
       </c>
       <c r="G6">
-        <v>295.8</v>
-      </c>
-      <c r="H6">
-        <v>123.4</v>
-      </c>
-      <c r="I6">
-        <v>192.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>171.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
-        <v>72.3</v>
+        <v>85.16</v>
       </c>
       <c r="C7">
-        <v>27.7</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="D7">
-        <v>128.69999999999999</v>
+        <v>282.74</v>
       </c>
       <c r="E7">
-        <v>69.599999999999994</v>
+        <v>170.81</v>
       </c>
       <c r="F7">
-        <v>296.3</v>
+        <v>167.45</v>
       </c>
       <c r="G7">
-        <v>205.1</v>
-      </c>
-      <c r="H7">
-        <v>136.69999999999999</v>
-      </c>
-      <c r="I7">
-        <v>296.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>397.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8">
-        <v>130</v>
+        <v>141.19</v>
       </c>
       <c r="C8">
-        <v>74.3</v>
+        <v>68.42</v>
       </c>
       <c r="D8">
-        <v>182.7</v>
+        <v>64.27</v>
       </c>
       <c r="E8">
-        <v>220.6</v>
+        <v>241.82</v>
       </c>
       <c r="F8">
-        <v>51.9</v>
+        <v>277.29000000000002</v>
       </c>
       <c r="G8">
-        <v>298.89999999999998</v>
-      </c>
-      <c r="H8">
-        <v>286.39999999999998</v>
-      </c>
-      <c r="I8">
-        <v>185.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
       <c r="B9">
-        <v>69.42</v>
+        <v>72.239999999999995</v>
       </c>
       <c r="C9">
-        <v>68.400000000000006</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="D9">
-        <v>111.6</v>
+        <v>136.16999999999999</v>
       </c>
       <c r="E9">
-        <v>87</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="F9">
-        <v>175.8</v>
+        <v>212.73</v>
       </c>
       <c r="G9">
-        <v>232.3</v>
-      </c>
-      <c r="H9">
-        <v>238</v>
-      </c>
-      <c r="I9">
-        <v>194.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>265.85000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
       <c r="B10">
-        <v>29.6</v>
+        <v>31.92</v>
       </c>
       <c r="C10">
-        <v>10.5</v>
+        <v>9.58</v>
       </c>
       <c r="D10">
-        <v>17.8</v>
+        <v>159.25</v>
       </c>
       <c r="E10">
-        <v>43.6</v>
+        <v>190.52</v>
       </c>
       <c r="F10">
-        <v>206.3</v>
+        <v>173</v>
       </c>
       <c r="G10">
-        <v>200</v>
-      </c>
-      <c r="H10">
-        <v>203.8</v>
-      </c>
-      <c r="I10">
-        <v>278.60000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>299.97000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
       <c r="B11">
-        <v>9.42</v>
+        <v>11.35</v>
       </c>
       <c r="C11">
-        <v>16.8</v>
+        <v>23.67</v>
       </c>
       <c r="D11">
-        <v>9.1</v>
+        <v>281.91000000000003</v>
       </c>
       <c r="E11">
-        <v>18.3</v>
+        <v>64.78</v>
       </c>
       <c r="F11">
-        <v>235.8</v>
+        <v>82.19</v>
       </c>
       <c r="G11">
-        <v>83.3</v>
-      </c>
-      <c r="H11">
-        <v>79.8</v>
-      </c>
-      <c r="I11">
-        <v>260.10000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
-        <v>84</v>
+        <v>220.06</v>
       </c>
     </row>
   </sheetData>
@@ -7451,449 +5103,273 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
         <f>1.05*market_prices!B2</f>
-        <v>14.028</v>
+        <v>16.926000000000002</v>
       </c>
       <c r="C2">
         <f>1.05*market_prices!C2</f>
-        <v>14.983499999999999</v>
+        <v>16.506</v>
       </c>
       <c r="D2">
-        <f>1.05*market_prices!D2</f>
-        <v>11.151</v>
+        <f>0.95*market_prices!B2</f>
+        <v>15.314</v>
       </c>
       <c r="E2">
-        <f>1.05*market_prices!E2</f>
-        <v>11.434500000000002</v>
-      </c>
-      <c r="F2">
-        <f>0.95*market_prices!B2</f>
-        <v>12.691999999999998</v>
-      </c>
-      <c r="G2">
         <f>0.95*market_prices!C2</f>
-        <v>13.5565</v>
-      </c>
-      <c r="H2">
-        <f>0.95*market_prices!D2</f>
-        <v>10.088999999999999</v>
-      </c>
-      <c r="I2">
-        <f>0.95*market_prices!E2</f>
-        <v>10.345499999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14.933999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <f>1.05*market_prices!B3</f>
-        <v>26.880000000000003</v>
+        <v>24.864000000000001</v>
       </c>
       <c r="C3">
         <f>1.05*market_prices!C3</f>
-        <v>8.7150000000000016</v>
+        <v>7.4655000000000005</v>
       </c>
       <c r="D3">
-        <f>1.05*market_prices!D3</f>
-        <v>9.0299999999999994</v>
+        <f>0.95*market_prices!B3</f>
+        <v>22.495999999999999</v>
       </c>
       <c r="E3">
-        <f>1.05*market_prices!E3</f>
-        <v>15.435</v>
-      </c>
-      <c r="F3">
-        <f>0.95*market_prices!B3</f>
-        <v>24.32</v>
-      </c>
-      <c r="G3">
         <f>0.95*market_prices!C3</f>
-        <v>7.8850000000000007</v>
-      </c>
-      <c r="H3">
-        <f>0.95*market_prices!D3</f>
-        <v>8.17</v>
-      </c>
-      <c r="I3">
-        <f>0.95*market_prices!E3</f>
-        <v>13.964999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.7545000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <f>1.05*market_prices!B4</f>
-        <v>75.915000000000006</v>
+        <v>67.756500000000003</v>
       </c>
       <c r="C4">
         <f>1.05*market_prices!C4</f>
-        <v>42.63</v>
+        <v>38.335499999999996</v>
       </c>
       <c r="D4">
-        <f>1.05*market_prices!D4</f>
-        <v>30.03</v>
+        <f>0.95*market_prices!B4</f>
+        <v>61.3035</v>
       </c>
       <c r="E4">
-        <f>1.05*market_prices!E4</f>
-        <v>91.665000000000006</v>
-      </c>
-      <c r="F4">
-        <f>0.95*market_prices!B4</f>
-        <v>68.684999999999988</v>
-      </c>
-      <c r="G4">
         <f>0.95*market_prices!C4</f>
-        <v>38.57</v>
-      </c>
-      <c r="H4">
-        <f>0.95*market_prices!D4</f>
-        <v>27.17</v>
-      </c>
-      <c r="I4">
-        <f>0.95*market_prices!E4</f>
-        <v>82.934999999999988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34.6845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
         <f>1.05*market_prices!B5</f>
-        <v>47.88</v>
+        <v>46.053000000000004</v>
       </c>
       <c r="C5">
         <f>1.05*market_prices!C5</f>
-        <v>39.480000000000004</v>
+        <v>29.673000000000002</v>
       </c>
       <c r="D5">
-        <f>1.05*market_prices!D5</f>
-        <v>84.314999999999998</v>
+        <f>0.95*market_prices!B5</f>
+        <v>41.666999999999994</v>
       </c>
       <c r="E5">
-        <f>1.05*market_prices!E5</f>
-        <v>42.63</v>
-      </c>
-      <c r="F5">
-        <f>0.95*market_prices!B5</f>
-        <v>43.32</v>
-      </c>
-      <c r="G5">
         <f>0.95*market_prices!C5</f>
-        <v>35.72</v>
-      </c>
-      <c r="H5">
-        <f>0.95*market_prices!D5</f>
-        <v>76.284999999999997</v>
-      </c>
-      <c r="I5">
-        <f>0.95*market_prices!E5</f>
-        <v>38.57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26.847000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
         <f>1.05*market_prices!B6</f>
-        <v>52.814999999999998</v>
+        <v>68.197500000000005</v>
       </c>
       <c r="C6">
         <f>1.05*market_prices!C6</f>
-        <v>38.535000000000004</v>
+        <v>49.444500000000005</v>
       </c>
       <c r="D6">
-        <f>1.05*market_prices!D6</f>
-        <v>76.754999999999995</v>
+        <f>0.95*market_prices!B6</f>
+        <v>61.702500000000001</v>
       </c>
       <c r="E6">
-        <f>1.05*market_prices!E6</f>
-        <v>103.11000000000001</v>
-      </c>
-      <c r="F6">
-        <f>0.95*market_prices!B6</f>
-        <v>47.784999999999997</v>
-      </c>
-      <c r="G6">
         <f>0.95*market_prices!C6</f>
-        <v>34.865000000000002</v>
-      </c>
-      <c r="H6">
-        <f>0.95*market_prices!D6</f>
-        <v>69.444999999999993</v>
-      </c>
-      <c r="I6">
-        <f>0.95*market_prices!E6</f>
-        <v>93.289999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44.735500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
         <f>1.05*market_prices!B7</f>
-        <v>75.915000000000006</v>
+        <v>89.418000000000006</v>
       </c>
       <c r="C7">
         <f>1.05*market_prices!C7</f>
-        <v>29.085000000000001</v>
+        <v>35.153999999999996</v>
       </c>
       <c r="D7">
-        <f>1.05*market_prices!D7</f>
-        <v>135.13499999999999</v>
+        <f>0.95*market_prices!B7</f>
+        <v>80.901999999999987</v>
       </c>
       <c r="E7">
-        <f>1.05*market_prices!E7</f>
-        <v>73.08</v>
-      </c>
-      <c r="F7">
-        <f>0.95*market_prices!B7</f>
-        <v>68.684999999999988</v>
-      </c>
-      <c r="G7">
         <f>0.95*market_prices!C7</f>
-        <v>26.314999999999998</v>
-      </c>
-      <c r="H7">
-        <f>0.95*market_prices!D7</f>
-        <v>122.26499999999999</v>
-      </c>
-      <c r="I7">
-        <f>0.95*market_prices!E7</f>
-        <v>66.11999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31.805999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8">
         <f>1.05*market_prices!B8</f>
-        <v>136.5</v>
+        <v>148.24950000000001</v>
       </c>
       <c r="C8">
         <f>1.05*market_prices!C8</f>
-        <v>78.015000000000001</v>
+        <v>71.841000000000008</v>
       </c>
       <c r="D8">
-        <f>1.05*market_prices!D8</f>
-        <v>191.83500000000001</v>
+        <f>0.95*market_prices!B8</f>
+        <v>134.13049999999998</v>
       </c>
       <c r="E8">
-        <f>1.05*market_prices!E8</f>
-        <v>231.63</v>
-      </c>
-      <c r="F8">
-        <f>0.95*market_prices!B8</f>
-        <v>123.5</v>
-      </c>
-      <c r="G8">
         <f>0.95*market_prices!C8</f>
-        <v>70.584999999999994</v>
-      </c>
-      <c r="H8">
-        <f>0.95*market_prices!D8</f>
-        <v>173.56499999999997</v>
-      </c>
-      <c r="I8">
-        <f>0.95*market_prices!E8</f>
-        <v>209.57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64.998999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
       <c r="B9">
         <f>1.05*market_prices!B9</f>
-        <v>72.891000000000005</v>
+        <v>75.852000000000004</v>
       </c>
       <c r="C9">
         <f>1.05*market_prices!C9</f>
-        <v>71.820000000000007</v>
+        <v>67.945499999999996</v>
       </c>
       <c r="D9">
-        <f>1.05*market_prices!D9</f>
-        <v>117.17999999999999</v>
+        <f>0.95*market_prices!B9</f>
+        <v>68.627999999999986</v>
       </c>
       <c r="E9">
-        <f>1.05*market_prices!E9</f>
-        <v>91.350000000000009</v>
-      </c>
-      <c r="F9">
-        <f>0.95*market_prices!B9</f>
-        <v>65.948999999999998</v>
-      </c>
-      <c r="G9">
         <f>0.95*market_prices!C9</f>
-        <v>64.98</v>
-      </c>
-      <c r="H9">
-        <f>0.95*market_prices!D9</f>
-        <v>106.02</v>
-      </c>
-      <c r="I9">
-        <f>0.95*market_prices!E9</f>
-        <v>82.649999999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61.474499999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
       <c r="B10">
         <f>1.05*market_prices!B10</f>
-        <v>31.080000000000002</v>
+        <v>33.516000000000005</v>
       </c>
       <c r="C10">
         <f>1.05*market_prices!C10</f>
-        <v>11.025</v>
+        <v>10.059000000000001</v>
       </c>
       <c r="D10">
-        <f>1.05*market_prices!D10</f>
-        <v>18.690000000000001</v>
+        <f>0.95*market_prices!B10</f>
+        <v>30.324000000000002</v>
       </c>
       <c r="E10">
-        <f>1.05*market_prices!E10</f>
-        <v>45.78</v>
-      </c>
-      <c r="F10">
-        <f>0.95*market_prices!B10</f>
-        <v>28.12</v>
-      </c>
-      <c r="G10">
         <f>0.95*market_prices!C10</f>
-        <v>9.9749999999999996</v>
-      </c>
-      <c r="H10">
-        <f>0.95*market_prices!D10</f>
-        <v>16.91</v>
-      </c>
-      <c r="I10">
-        <f>0.95*market_prices!E10</f>
-        <v>41.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.1009999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
       <c r="B11">
         <f>1.05*market_prices!B11</f>
-        <v>9.891</v>
+        <v>11.9175</v>
       </c>
       <c r="C11">
         <f>1.05*market_prices!C11</f>
-        <v>17.64</v>
+        <v>24.853500000000004</v>
       </c>
       <c r="D11">
-        <f>1.05*market_prices!D11</f>
-        <v>9.5549999999999997</v>
+        <f>0.95*market_prices!B11</f>
+        <v>10.782499999999999</v>
       </c>
       <c r="E11">
-        <f>1.05*market_prices!E11</f>
-        <v>19.215</v>
-      </c>
-      <c r="F11">
-        <f>0.95*market_prices!B11</f>
-        <v>8.9489999999999998</v>
-      </c>
-      <c r="G11">
         <f>0.95*market_prices!C11</f>
-        <v>15.959999999999999</v>
-      </c>
-      <c r="H11">
-        <f>0.95*market_prices!D11</f>
-        <v>8.6449999999999996</v>
-      </c>
-      <c r="I11">
-        <f>0.95*market_prices!E11</f>
-        <v>17.385000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22.486499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -7944,15 +5420,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -7960,7 +5436,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7973,10 +5449,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7994,7 +5470,7 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8002,23 +5478,7 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -8369,36 +5829,169 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8407,7 +6000,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:L4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8452,13 +6045,13 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8539,40 +6132,40 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
       <c r="G4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8581,178 +6174,53 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
-  <dimension ref="A1:A25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999537038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666087964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332638889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999189815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8763,96 +6231,294 @@
     <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>-3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>-3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>-3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -8919,10 +6585,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8948,7 +6614,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
@@ -8969,30 +6635,30 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -9010,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="H2" s="7">
         <v>0.3</v>
@@ -9042,7 +6708,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -9092,7 +6758,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -9110,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9137,56 +6803,6 @@
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9210,10 +6826,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -9223,10 +6839,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9275,64 +6891,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2">
-        <v>0.3</v>
-      </c>
-      <c r="C2">
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="D2">
-        <v>0.6</v>
-      </c>
-      <c r="E2">
-        <v>0.75</v>
-      </c>
-      <c r="F2">
-        <v>0.9</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3">
-        <v>0.33</v>
-      </c>
-      <c r="C3">
-        <v>0.36</v>
-      </c>
-      <c r="D3">
-        <v>0.39</v>
-      </c>
-      <c r="E3">
-        <v>0.42</v>
-      </c>
-      <c r="F3">
-        <v>0.44</v>
-      </c>
-      <c r="G3">
-        <v>0.45</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9376,7 +6945,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
@@ -9391,18 +6960,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H2" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -9414,36 +6983,36 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -9453,11 +7022,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>92</v>
+      <c r="A5" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
@@ -9466,33 +7035,33 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -9506,19 +7075,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -9531,30 +7100,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
+      <c r="A8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9734,7 +7283,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9744,15 +7293,15 @@
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9765,7 +7314,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9781,16 +7330,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -9804,12 +7347,6 @@
       <c r="C2">
         <v>0.54</v>
       </c>
-      <c r="D2">
-        <v>0.78</v>
-      </c>
-      <c r="E2">
-        <v>0.68</v>
-      </c>
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
@@ -9824,12 +7361,6 @@
       <c r="C3">
         <v>0.52</v>
       </c>
-      <c r="D3">
-        <v>0.94</v>
-      </c>
-      <c r="E3">
-        <v>0.54</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -9842,12 +7373,6 @@
       <c r="C4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D4">
-        <v>0.95</v>
-      </c>
-      <c r="E4">
-        <v>0.47</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -9860,12 +7385,6 @@
       <c r="C5">
         <v>0.5</v>
       </c>
-      <c r="D5">
-        <v>0.84</v>
-      </c>
-      <c r="E5">
-        <v>0.42</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -9878,12 +7397,6 @@
       <c r="C6">
         <v>0.33</v>
       </c>
-      <c r="D6">
-        <v>0.77</v>
-      </c>
-      <c r="E6">
-        <v>0.53</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -9896,12 +7409,6 @@
       <c r="C7">
         <v>0.45</v>
       </c>
-      <c r="D7">
-        <v>0.94</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -9914,12 +7421,6 @@
       <c r="C8">
         <v>0.39</v>
       </c>
-      <c r="D8">
-        <v>0.9</v>
-      </c>
-      <c r="E8">
-        <v>0.79</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -9932,12 +7433,6 @@
       <c r="C9">
         <v>0.47</v>
       </c>
-      <c r="D9">
-        <v>0.9</v>
-      </c>
-      <c r="E9">
-        <v>0.95</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -9950,12 +7445,6 @@
       <c r="C10">
         <v>0.39</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.85</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -9967,12 +7456,6 @@
       </c>
       <c r="C11">
         <v>0.27</v>
-      </c>
-      <c r="D11">
-        <v>0.98</v>
-      </c>
-      <c r="E11">
-        <v>0.97</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9349F516-CB55-4A2D-AC96-51B359CB80F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734092DA-7027-4E14-A19A-1DB00514F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="2" activeTab="11" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" tabRatio="796" firstSheet="11" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>node</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>fee</t>
+  </si>
+  <si>
+    <t>is_setpoint</t>
+  </si>
+  <si>
+    <t>penalty</t>
   </si>
 </sst>
 </file>
@@ -4715,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -6240,8 +6246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6258,6 +6264,12 @@
       <c r="B1" t="s">
         <v>55</v>
       </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6265,6 +6277,12 @@
       </c>
       <c r="B2" t="s">
         <v>85</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734092DA-7027-4E14-A19A-1DB00514F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604BF146-86E9-496E-83C5-804CF812A978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" tabRatio="796" firstSheet="11" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" tabRatio="796" firstSheet="10" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -23,17 +23,18 @@
     <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
     <sheet name="cf" sheetId="7" r:id="rId9"/>
     <sheet name="inflow" sheetId="3" r:id="rId10"/>
-    <sheet name="price" sheetId="4" r:id="rId11"/>
-    <sheet name="markets" sheetId="5" r:id="rId12"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
-    <sheet name="risk" sheetId="17" r:id="rId15"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId19"/>
-    <sheet name="constraints" sheetId="14" r:id="rId20"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId21"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
+    <sheet name="price" sheetId="4" r:id="rId12"/>
+    <sheet name="markets" sheetId="5" r:id="rId13"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId14"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId15"/>
+    <sheet name="risk" sheetId="17" r:id="rId16"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId17"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId18"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId19"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
+    <sheet name="constraints" sheetId="14" r:id="rId21"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>node</t>
   </si>
@@ -4484,6 +4485,98 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44A96C9-CA4B-4735-AF1E-65BD86DB3657}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -4717,7 +4810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -4884,7 +4977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5170,7 +5263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -5474,7 +5567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5516,7 +5609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5555,7 +5648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -5729,7 +5822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -5893,173 +5986,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999537038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666087964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332638889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999189815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6243,10 +6169,177 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6296,7 +6389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:G25"/>
   <sheetViews>

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604BF146-86E9-496E-83C5-804CF812A978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D20E37E-8994-4D29-9D45-23E1EDBCF77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" tabRatio="796" firstSheet="10" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="1" activeTab="12" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -26,15 +26,16 @@
     <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
     <sheet name="price" sheetId="4" r:id="rId12"/>
     <sheet name="markets" sheetId="5" r:id="rId13"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId14"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId15"/>
-    <sheet name="risk" sheetId="17" r:id="rId16"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId17"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId18"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId19"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
-    <sheet name="constraints" sheetId="14" r:id="rId21"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId22"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId14"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId15"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId16"/>
+    <sheet name="risk" sheetId="17" r:id="rId17"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId18"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId19"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId20"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
+    <sheet name="constraints" sheetId="14" r:id="rId22"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
   <si>
     <t>node</t>
   </si>
@@ -348,6 +349,18 @@
   </si>
   <si>
     <t>penalty</t>
+  </si>
+  <si>
+    <t>reserve_product</t>
+  </si>
+  <si>
+    <t>processgroup</t>
+  </si>
+  <si>
+    <t>elc_res</t>
+  </si>
+  <si>
+    <t>proc_res</t>
   </si>
 </sst>
 </file>
@@ -400,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -414,6 +427,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4019,178 +4035,178 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -4207,14 +4223,14 @@
       <selection activeCell="H14" sqref="E1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4225,7 +4241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4239,7 +4255,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4253,7 +4269,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4267,7 +4283,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4281,7 +4297,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4295,7 +4311,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4309,7 +4325,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4323,7 +4339,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4337,7 +4353,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4351,7 +4367,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4365,7 +4381,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -4373,7 +4389,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -4381,7 +4397,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -4389,7 +4405,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -4397,7 +4413,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -4405,7 +4421,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -4413,7 +4429,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -4421,7 +4437,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -4429,7 +4445,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -4437,7 +4453,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -4445,7 +4461,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -4453,7 +4469,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -4461,7 +4477,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -4469,7 +4485,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4488,84 +4504,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44A96C9-CA4B-4735-AF1E-65BD86DB3657}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -4584,12 +4602,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4600,7 +4618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4612,7 +4630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4624,7 +4642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4636,7 +4654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4648,7 +4666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4660,7 +4678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4672,7 +4690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4684,7 +4702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4696,7 +4714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4708,7 +4726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4720,85 +4738,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4812,24 +4830,25 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="7"/>
+    <col min="2" max="2" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -4840,31 +4859,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -4875,21 +4897,21 @@
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" s="7">
@@ -4898,8 +4920,11 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
@@ -4907,34 +4932,37 @@
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>0.2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
       <c r="J3" s="7">
         <v>0</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -4942,35 +4970,38 @@
         <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>0.2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
       <c r="J4" s="7">
         <v>0</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H5"/>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4978,6 +5009,58 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -4985,14 +5068,14 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5015,7 +5098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5039,7 +5122,7 @@
         <v>134.68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5063,7 +5146,7 @@
         <v>271.23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5087,7 +5170,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5111,7 +5194,7 @@
         <v>220.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5135,7 +5218,7 @@
         <v>171.55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5159,7 +5242,7 @@
         <v>397.42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5183,7 +5266,7 @@
         <v>191.92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5207,7 +5290,7 @@
         <v>265.85000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5231,7 +5314,7 @@
         <v>299.97000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5263,7 +5346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -5271,14 +5354,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5295,7 +5378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5317,7 +5400,7 @@
         <v>14.933999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5339,7 +5422,7 @@
         <v>6.7545000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5361,7 +5444,7 @@
         <v>34.6845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5383,7 +5466,7 @@
         <v>26.847000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5405,7 +5488,7 @@
         <v>44.735500000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5427,7 +5510,7 @@
         <v>31.805999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5449,7 +5532,7 @@
         <v>64.998999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5471,7 +5554,7 @@
         <v>61.474499999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5493,7 +5576,7 @@
         <v>9.1009999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5515,50 +5598,50 @@
         <v>22.486499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
   </sheetData>
@@ -5567,7 +5650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5575,12 +5658,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -5588,7 +5671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -5596,7 +5679,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -5609,7 +5692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5617,9 +5700,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -5627,7 +5710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -5635,7 +5718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5648,7 +5731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -5656,336 +5739,168 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999537038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666087964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332638889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999189815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5998,20 +5913,20 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6049,7 +5964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6087,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6125,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -6169,6 +6084,174 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6176,155 +6259,155 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6335,7 +6418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -6343,14 +6426,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6364,7 +6447,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -6378,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -6389,7 +6472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -6397,15 +6480,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6428,7 +6511,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6452,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6476,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6500,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6524,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6548,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6572,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -6596,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6620,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -6644,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -6668,85 +6751,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6762,25 +6845,25 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -6830,7 +6913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -6880,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -6930,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -6987,15 +7070,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -7004,6 +7087,39 @@
       </c>
       <c r="C1" s="3" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7019,9 +7135,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7078,20 +7194,20 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -7117,7 +7233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -7143,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -7169,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -7195,7 +7311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -7221,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -7247,7 +7363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -7273,10 +7389,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
   </sheetData>
@@ -7293,155 +7409,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7460,9 +7576,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -7470,7 +7586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -7491,15 +7607,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7510,7 +7626,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7524,7 +7640,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7536,7 +7652,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7548,7 +7664,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7560,7 +7676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7572,7 +7688,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7584,7 +7700,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -7596,7 +7712,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -7608,7 +7724,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -7620,7 +7736,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -7632,85 +7748,85 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D20E37E-8994-4D29-9D45-23E1EDBCF77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA08AE3-E62A-4967-9026-F36376A67F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="1" activeTab="12" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -20,22 +20,23 @@
     <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
     <sheet name="process_topology" sheetId="6" r:id="rId6"/>
     <sheet name="node_history" sheetId="19" r:id="rId7"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
-    <sheet name="cf" sheetId="7" r:id="rId9"/>
-    <sheet name="inflow" sheetId="3" r:id="rId10"/>
-    <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
-    <sheet name="price" sheetId="4" r:id="rId12"/>
-    <sheet name="markets" sheetId="5" r:id="rId13"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId14"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId15"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId16"/>
-    <sheet name="risk" sheetId="17" r:id="rId17"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId18"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId19"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId20"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
-    <sheet name="constraints" sheetId="14" r:id="rId22"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId23"/>
+    <sheet name="node_diffusion" sheetId="24" r:id="rId8"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId9"/>
+    <sheet name="cf" sheetId="7" r:id="rId10"/>
+    <sheet name="inflow" sheetId="3" r:id="rId11"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId12"/>
+    <sheet name="price" sheetId="4" r:id="rId13"/>
+    <sheet name="markets" sheetId="5" r:id="rId14"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId15"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId16"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId17"/>
+    <sheet name="risk" sheetId="17" r:id="rId18"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId19"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId20"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId21"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId22"/>
+    <sheet name="constraints" sheetId="14" r:id="rId23"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
   <si>
     <t>node</t>
   </si>
@@ -361,6 +362,24 @@
   </si>
   <si>
     <t>proc_res</t>
+  </si>
+  <si>
+    <t>node1</t>
+  </si>
+  <si>
+    <t>node2</t>
+  </si>
+  <si>
+    <t>diff_coeff</t>
+  </si>
+  <si>
+    <t>state_min</t>
+  </si>
+  <si>
+    <t>is_temp</t>
+  </si>
+  <si>
+    <t>T_E_conversion</t>
   </si>
 </sst>
 </file>
@@ -4216,6 +4235,247 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>0.42</v>
+      </c>
+      <c r="C2">
+        <v>0.54</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>0.45</v>
+      </c>
+      <c r="C3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>0.27</v>
+      </c>
+      <c r="C4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>0.33</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>0.32</v>
+      </c>
+      <c r="C6">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+      <c r="B8">
+        <v>0.47</v>
+      </c>
+      <c r="C8">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+      <c r="B9">
+        <v>0.31</v>
+      </c>
+      <c r="C9">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+      <c r="B10">
+        <v>0.44</v>
+      </c>
+      <c r="C10">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+      <c r="B11">
+        <v>0.42</v>
+      </c>
+      <c r="C11">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -4500,7 +4760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44A96C9-CA4B-4735-AF1E-65BD86DB3657}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -4594,7 +4854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -4828,11 +5088,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5008,7 +5268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5060,7 +5320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5346,7 +5606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -5650,7 +5910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5692,7 +5952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5731,7 +5991,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -5905,185 +6379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6251,7 +6547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6418,7 +6714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -6472,7 +6768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -7569,6 +7865,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F1FEF7-A337-4ADD-8F2A-03D982D23844}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7597,245 +7923,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
-  <dimension ref="A1:L25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>0.42</v>
-      </c>
-      <c r="C2">
-        <v>0.54</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>0.45</v>
-      </c>
-      <c r="C3">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>0.27</v>
-      </c>
-      <c r="C4">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>0.33</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>0.32</v>
-      </c>
-      <c r="C6">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C7">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999537038</v>
-      </c>
-      <c r="B8">
-        <v>0.47</v>
-      </c>
-      <c r="C8">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666087964</v>
-      </c>
-      <c r="B9">
-        <v>0.31</v>
-      </c>
-      <c r="C9">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332638889</v>
-      </c>
-      <c r="B10">
-        <v>0.44</v>
-      </c>
-      <c r="C10">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999189815</v>
-      </c>
-      <c r="B11">
-        <v>0.42</v>
-      </c>
-      <c r="C11">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA08AE3-E62A-4967-9026-F36376A67F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D4E30-ECA5-4E7E-AABC-A727FC1AB654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="7" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -20,23 +20,24 @@
     <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
     <sheet name="process_topology" sheetId="6" r:id="rId6"/>
     <sheet name="node_history" sheetId="19" r:id="rId7"/>
-    <sheet name="node_diffusion" sheetId="24" r:id="rId8"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId9"/>
-    <sheet name="cf" sheetId="7" r:id="rId10"/>
-    <sheet name="inflow" sheetId="3" r:id="rId11"/>
-    <sheet name="inflow_blocks" sheetId="22" r:id="rId12"/>
-    <sheet name="price" sheetId="4" r:id="rId13"/>
-    <sheet name="markets" sheetId="5" r:id="rId14"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId15"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId16"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId17"/>
-    <sheet name="risk" sheetId="17" r:id="rId18"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId19"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId20"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId21"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId22"/>
-    <sheet name="constraints" sheetId="14" r:id="rId23"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId24"/>
+    <sheet name="node_delay" sheetId="25" r:id="rId8"/>
+    <sheet name="node_diffusion" sheetId="24" r:id="rId9"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId10"/>
+    <sheet name="cf" sheetId="7" r:id="rId11"/>
+    <sheet name="inflow" sheetId="3" r:id="rId12"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId13"/>
+    <sheet name="price" sheetId="4" r:id="rId14"/>
+    <sheet name="markets" sheetId="5" r:id="rId15"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId16"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId17"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId18"/>
+    <sheet name="risk" sheetId="17" r:id="rId19"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId20"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId21"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId22"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId23"/>
+    <sheet name="constraints" sheetId="14" r:id="rId24"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
   <si>
     <t>node</t>
   </si>
@@ -380,6 +381,15 @@
   </si>
   <si>
     <t>T_E_conversion</t>
+  </si>
+  <si>
+    <t>delay_t</t>
+  </si>
+  <si>
+    <t>min_flow</t>
+  </si>
+  <si>
+    <t>max_flow</t>
   </si>
 </sst>
 </file>
@@ -4054,178 +4064,178 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -4235,6 +4245,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -4242,15 +4283,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4261,7 +4302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4275,7 +4316,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4287,7 +4328,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4299,7 +4340,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4311,7 +4352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4323,7 +4364,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4335,7 +4376,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4347,7 +4388,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4359,7 +4400,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4371,7 +4412,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4383,85 +4424,85 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4475,7 +4516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -4483,14 +4524,14 @@
       <selection activeCell="H14" sqref="E1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4501,7 +4542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4515,7 +4556,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4529,7 +4570,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4543,7 +4584,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4557,7 +4598,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4571,7 +4612,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4585,7 +4626,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4599,7 +4640,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4613,7 +4654,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4627,7 +4668,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4641,7 +4682,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -4649,7 +4690,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -4657,7 +4698,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -4665,7 +4706,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -4673,7 +4714,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -4681,7 +4722,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -4689,7 +4730,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -4697,7 +4738,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -4705,7 +4746,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -4713,7 +4754,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -4721,7 +4762,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -4729,7 +4770,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -4737,7 +4778,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -4745,7 +4786,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4760,7 +4801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44A96C9-CA4B-4735-AF1E-65BD86DB3657}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -4768,82 +4809,82 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -4854,7 +4895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -4862,12 +4903,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4878,7 +4919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4890,7 +4931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4902,7 +4943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4914,7 +4955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4926,7 +4967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4938,7 +4979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4950,7 +4991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4962,7 +5003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4974,7 +5015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4986,7 +5027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4998,85 +5039,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5088,7 +5129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -5096,19 +5137,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -5146,7 +5187,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -5184,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
@@ -5222,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -5260,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I5"/>
     </row>
   </sheetData>
@@ -5268,7 +5309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5276,13 +5317,13 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>98</v>
       </c>
@@ -5293,7 +5334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -5304,7 +5345,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>80</v>
       </c>
@@ -5320,7 +5361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5328,14 +5369,14 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="14" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5358,7 +5399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5382,7 +5423,7 @@
         <v>134.68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5406,7 +5447,7 @@
         <v>271.23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5430,7 +5471,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5454,7 +5495,7 @@
         <v>220.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5478,7 +5519,7 @@
         <v>171.55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5502,7 +5543,7 @@
         <v>397.42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5526,7 +5567,7 @@
         <v>191.92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5550,7 +5591,7 @@
         <v>265.85000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5574,7 +5615,7 @@
         <v>299.97000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5606,7 +5647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -5614,14 +5655,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5638,7 +5679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5660,7 +5701,7 @@
         <v>14.933999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5682,7 +5723,7 @@
         <v>6.7545000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5704,7 +5745,7 @@
         <v>34.6845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5726,7 +5767,7 @@
         <v>26.847000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5748,7 +5789,7 @@
         <v>44.735500000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5770,7 +5811,7 @@
         <v>31.805999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5792,7 +5833,7 @@
         <v>64.998999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5814,7 +5855,7 @@
         <v>61.474499999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5836,7 +5877,7 @@
         <v>9.1009999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5858,50 +5899,50 @@
         <v>22.486499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
   </sheetData>
@@ -5910,7 +5951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5918,12 +5959,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -5931,7 +5972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -5939,51 +5980,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5995,24 +5997,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6153,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -6206,6 +6208,45 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -6213,162 +6254,162 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6379,7 +6420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6387,155 +6428,155 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6547,7 +6588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6555,155 +6596,155 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6714,7 +6755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -6722,14 +6763,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6743,7 +6784,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -6757,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -6768,7 +6809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -6776,15 +6817,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6807,7 +6848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6831,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6855,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6879,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6903,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6927,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6951,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -6975,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6999,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -7023,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -7047,85 +7088,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7144,22 +7185,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7209,7 +7250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -7259,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -7309,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -7372,9 +7413,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -7385,7 +7426,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7396,7 +7437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7407,7 +7448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7431,9 +7472,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7490,20 +7531,20 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -7529,7 +7570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -7555,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -7581,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -7607,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -7633,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -7659,7 +7700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -7685,10 +7726,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9"/>
     </row>
   </sheetData>
@@ -7705,155 +7746,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7865,6 +7906,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596E3FE2-967D-4C0B-BDAC-EF3704EC4DDF}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F1FEF7-A337-4ADD-8F2A-03D982D23844}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -7872,12 +7951,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -7892,35 +7971,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D4E30-ECA5-4E7E-AABC-A727FC1AB654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E3452-50C3-4EDF-B8AE-413606A4C241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="7" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
-    <sheet name="nodes" sheetId="1" r:id="rId2"/>
-    <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="groups" sheetId="21" r:id="rId4"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
-    <sheet name="node_history" sheetId="19" r:id="rId7"/>
-    <sheet name="node_delay" sheetId="25" r:id="rId8"/>
-    <sheet name="node_diffusion" sheetId="24" r:id="rId9"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId10"/>
-    <sheet name="cf" sheetId="7" r:id="rId11"/>
-    <sheet name="inflow" sheetId="3" r:id="rId12"/>
-    <sheet name="inflow_blocks" sheetId="22" r:id="rId13"/>
-    <sheet name="price" sheetId="4" r:id="rId14"/>
-    <sheet name="markets" sheetId="5" r:id="rId15"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId16"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId17"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId18"/>
-    <sheet name="risk" sheetId="17" r:id="rId19"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId20"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId21"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId22"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId23"/>
-    <sheet name="constraints" sheetId="14" r:id="rId24"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId25"/>
+    <sheet name="setup" sheetId="26" r:id="rId2"/>
+    <sheet name="nodes" sheetId="1" r:id="rId3"/>
+    <sheet name="processes" sheetId="2" r:id="rId4"/>
+    <sheet name="groups" sheetId="21" r:id="rId5"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId6"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId7"/>
+    <sheet name="node_history" sheetId="19" r:id="rId8"/>
+    <sheet name="node_delay" sheetId="25" r:id="rId9"/>
+    <sheet name="node_diffusion" sheetId="24" r:id="rId10"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId11"/>
+    <sheet name="cf" sheetId="7" r:id="rId12"/>
+    <sheet name="inflow" sheetId="3" r:id="rId13"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId14"/>
+    <sheet name="price" sheetId="4" r:id="rId15"/>
+    <sheet name="markets" sheetId="5" r:id="rId16"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId18"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
+    <sheet name="risk" sheetId="17" r:id="rId20"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId21"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId22"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId23"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId24"/>
+    <sheet name="constraints" sheetId="14" r:id="rId25"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
   <si>
     <t>node</t>
   </si>
@@ -390,6 +391,39 @@
   </si>
   <si>
     <t>max_flow</t>
+  </si>
+  <si>
+    <t>initial_flow</t>
+  </si>
+  <si>
+    <t>initial_load</t>
+  </si>
+  <si>
+    <t>scenario_independent_online</t>
+  </si>
+  <si>
+    <t>scenario_independent_state</t>
+  </si>
+  <si>
+    <t>use_market_bids</t>
+  </si>
+  <si>
+    <t>use_reserves</t>
+  </si>
+  <si>
+    <t>use_reserve_realisation</t>
+  </si>
+  <si>
+    <t>use_node_dummy_variables</t>
+  </si>
+  <si>
+    <t>use_ramp_dummy_variables</t>
+  </si>
+  <si>
+    <t>common_timesteps</t>
+  </si>
+  <si>
+    <t>common_scenario_name</t>
   </si>
 </sst>
 </file>
@@ -4064,178 +4098,178 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -4245,6 +4279,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F1FEF7-A337-4ADD-8F2A-03D982D23844}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4252,9 +4316,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -4262,7 +4326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -4275,7 +4339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -4283,15 +4347,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4302,7 +4366,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4316,7 +4380,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4328,7 +4392,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4340,7 +4404,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4352,7 +4416,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4364,7 +4428,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4376,7 +4440,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4388,7 +4452,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4400,7 +4464,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4412,7 +4476,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4424,85 +4488,85 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4516,7 +4580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -4524,14 +4588,14 @@
       <selection activeCell="H14" sqref="E1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4542,7 +4606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4556,7 +4620,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4570,7 +4634,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4584,7 +4648,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4598,7 +4662,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4612,7 +4676,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4626,7 +4690,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4640,7 +4704,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4654,7 +4718,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4668,7 +4732,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4682,7 +4746,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -4690,7 +4754,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -4698,7 +4762,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -4706,7 +4770,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -4714,7 +4778,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -4722,7 +4786,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -4730,7 +4794,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -4738,7 +4802,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -4746,7 +4810,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -4754,7 +4818,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -4762,7 +4826,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -4770,7 +4834,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -4778,7 +4842,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -4786,7 +4850,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4801,7 +4865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44A96C9-CA4B-4735-AF1E-65BD86DB3657}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -4809,82 +4873,82 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -4895,7 +4959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -4903,12 +4967,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4919,7 +4983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4931,7 +4995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4943,7 +5007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4955,7 +5019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4967,7 +5031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4979,7 +5043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4991,7 +5055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5003,7 +5067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5015,7 +5079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5027,7 +5091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5039,85 +5103,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5129,7 +5193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -5137,19 +5201,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="7"/>
+    <col min="2" max="2" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -5187,7 +5251,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -5225,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
@@ -5263,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -5301,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I5"/>
     </row>
   </sheetData>
@@ -5309,7 +5373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5317,13 +5381,13 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>98</v>
       </c>
@@ -5334,7 +5398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -5345,7 +5409,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>80</v>
       </c>
@@ -5361,7 +5425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5369,14 +5433,14 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5399,7 +5463,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5423,7 +5487,7 @@
         <v>134.68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5447,7 +5511,7 @@
         <v>271.23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5471,7 +5535,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5495,7 +5559,7 @@
         <v>220.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5519,7 +5583,7 @@
         <v>171.55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5543,7 +5607,7 @@
         <v>397.42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5567,7 +5631,7 @@
         <v>191.92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5591,7 +5655,7 @@
         <v>265.85000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5615,7 +5679,7 @@
         <v>299.97000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5647,7 +5711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -5655,14 +5719,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5679,7 +5743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5701,7 +5765,7 @@
         <v>14.933999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5723,7 +5787,7 @@
         <v>6.7545000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5745,7 +5809,7 @@
         <v>34.6845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5767,7 +5831,7 @@
         <v>26.847000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5789,7 +5853,7 @@
         <v>44.735500000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5811,7 +5875,7 @@
         <v>31.805999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5833,7 +5897,7 @@
         <v>64.998999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5855,7 +5919,7 @@
         <v>61.474499999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5877,7 +5941,7 @@
         <v>9.1009999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5899,50 +5963,50 @@
         <v>22.486499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
   </sheetData>
@@ -5951,7 +6015,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5112C03D-AA3C-4BDB-99A8-E263BCF7A011}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5959,12 +6104,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -5972,7 +6117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -5980,7 +6125,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -5993,221 +6138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6215,9 +6146,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -6225,7 +6156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -6233,7 +6164,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -6246,7 +6177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -6254,162 +6185,162 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6420,7 +6351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6428,155 +6359,155 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6588,7 +6519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6596,155 +6527,155 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6755,7 +6686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -6763,14 +6694,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6784,7 +6715,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -6798,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -6809,7 +6740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -6817,15 +6748,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6848,7 +6779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6872,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6896,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6920,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6944,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6968,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6992,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -7016,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -7040,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -7064,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -7088,85 +7019,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7178,155 +7109,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
       </c>
       <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7">
-        <v>2</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -7350,9 +7279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -7364,19 +7293,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -7406,6 +7335,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -7413,9 +7585,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -7426,7 +7598,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7437,7 +7609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7448,7 +7620,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7464,7 +7636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -7472,9 +7644,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7523,28 +7695,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -7569,8 +7741,14 @@
       <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -7595,8 +7773,14 @@
       <c r="H2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -7621,8 +7805,14 @@
       <c r="H3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -7647,8 +7837,14 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -7673,8 +7869,14 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -7699,8 +7901,14 @@
       <c r="H6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -7725,11 +7933,17 @@
       <c r="H7" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
   </sheetData>
@@ -7738,7 +7952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -7746,155 +7960,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7905,22 +8119,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596E3FE2-967D-4C0B-BDAC-EF3704EC4DDF}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -7935,36 +8149,6 @@
       </c>
       <c r="E1" s="3" t="s">
         <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F1FEF7-A337-4ADD-8F2A-03D982D23844}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E3452-50C3-4EDF-B8AE-413606A4C241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F4622-EB75-460C-9356-083EE5072055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="124">
   <si>
     <t>node</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>common_scenario_name</t>
+  </si>
+  <si>
+    <t>node_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>ramp_dummy_variable_cost</t>
   </si>
 </sst>
 </file>
@@ -4098,178 +4104,178 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -4286,12 +4292,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -4316,9 +4322,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -4347,15 +4353,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4380,7 +4386,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4392,7 +4398,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4404,7 +4410,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4416,7 +4422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4428,7 +4434,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4440,7 +4446,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4452,7 +4458,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4464,7 +4470,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4476,7 +4482,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4488,85 +4494,85 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4588,14 +4594,14 @@
       <selection activeCell="H14" sqref="E1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4620,7 +4626,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4634,7 +4640,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4648,7 +4654,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4662,7 +4668,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4676,7 +4682,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4690,7 +4696,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4704,7 +4710,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4718,7 +4724,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4732,7 +4738,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4746,7 +4752,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -4754,7 +4760,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -4762,7 +4768,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -4770,7 +4776,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -4778,7 +4784,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -4786,7 +4792,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -4794,7 +4800,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -4802,7 +4808,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -4810,7 +4816,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -4818,7 +4824,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -4826,7 +4832,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -4834,7 +4840,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -4842,7 +4848,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -4850,7 +4856,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4873,82 +4879,82 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -4967,12 +4973,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4983,7 +4989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4995,7 +5001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5007,7 +5013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5019,7 +5025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5031,7 +5037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5043,7 +5049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5055,7 +5061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5067,7 +5073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5079,7 +5085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5091,7 +5097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5103,85 +5109,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5201,19 +5207,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -5251,7 +5257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I5"/>
     </row>
   </sheetData>
@@ -5381,13 +5387,13 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>98</v>
       </c>
@@ -5398,7 +5404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>80</v>
       </c>
@@ -5433,14 +5439,14 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="14" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5463,7 +5469,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5487,7 +5493,7 @@
         <v>134.68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5511,7 +5517,7 @@
         <v>271.23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5535,7 +5541,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5559,7 +5565,7 @@
         <v>220.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5583,7 +5589,7 @@
         <v>171.55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5607,7 +5613,7 @@
         <v>397.42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5631,7 +5637,7 @@
         <v>191.92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5655,7 +5661,7 @@
         <v>265.85000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5679,7 +5685,7 @@
         <v>299.97000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5719,14 +5725,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5765,7 +5771,7 @@
         <v>14.933999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5787,7 +5793,7 @@
         <v>6.7545000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5809,7 +5815,7 @@
         <v>34.6845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5831,7 +5837,7 @@
         <v>26.847000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5853,7 +5859,7 @@
         <v>44.735500000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5875,7 +5881,7 @@
         <v>31.805999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5897,7 +5903,7 @@
         <v>64.998999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5919,7 +5925,7 @@
         <v>61.474499999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5941,7 +5947,7 @@
         <v>9.1009999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5963,50 +5969,50 @@
         <v>22.486499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
   </sheetData>
@@ -6017,19 +6023,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5112C03D-AA3C-4BDB-99A8-E263BCF7A011}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6045,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -6053,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -6061,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -6069,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -6077,16 +6083,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>120</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6104,12 +6126,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -6117,7 +6139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -6125,7 +6147,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -6146,9 +6168,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -6156,7 +6178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -6164,7 +6186,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -6185,162 +6207,162 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6359,155 +6381,155 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6527,155 +6549,155 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6694,14 +6716,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6715,7 +6737,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -6729,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -6748,15 +6770,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6779,7 +6801,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6803,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6827,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6851,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6875,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6899,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6923,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -6947,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6971,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -6995,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -7019,85 +7041,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7116,20 +7138,20 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7179,7 +7201,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7229,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7279,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -7342,22 +7364,22 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7410,7 +7432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -7463,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -7516,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -7569,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q9" s="3"/>
     </row>
   </sheetData>
@@ -7585,9 +7607,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -7598,7 +7620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7609,7 +7631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7620,7 +7642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7644,9 +7666,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7703,20 +7725,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -7748,7 +7770,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -7780,7 +7802,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -7812,7 +7834,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -7844,7 +7866,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -7876,7 +7898,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -7908,7 +7930,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -7940,10 +7962,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9"/>
     </row>
   </sheetData>
@@ -7960,155 +7982,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -8127,14 +8149,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F4622-EB75-460C-9356-083EE5072055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA88EA6-EE41-44F6-8581-617C7977A9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
   <si>
     <t>node</t>
   </si>
@@ -354,9 +354,6 @@
     <t>penalty</t>
   </si>
   <si>
-    <t>reserve_product</t>
-  </si>
-  <si>
     <t>processgroup</t>
   </si>
   <si>
@@ -430,6 +427,18 @@
   </si>
   <si>
     <t>ramp_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>reserve_up,s2</t>
+  </si>
+  <si>
+    <t>reserve_down,s1</t>
+  </si>
+  <si>
+    <t>reserve_up,s1</t>
+  </si>
+  <si>
+    <t>reserve_down,s2</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -496,9 +505,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4299,13 +4305,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4597,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="E1:H14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5204,7 +5210,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5230,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>32</v>
@@ -5268,7 +5274,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>33</v>
@@ -5303,10 +5309,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>45</v>
@@ -5341,10 +5347,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
@@ -5381,32 +5387,39 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
     <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>61</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
       </c>
       <c r="B2">
         <v>0.2</v>
@@ -5414,10 +5427,17 @@
       <c r="C2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>80</v>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -5425,8 +5445,159 @@
       <c r="C3">
         <v>0.3</v>
       </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5436,7 +5607,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6025,7 +6196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5112C03D-AA3C-4BDB-99A8-E263BCF7A011}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -6045,7 +6216,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6053,7 +6224,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6061,7 +6232,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6069,7 +6240,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6077,7 +6248,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6085,7 +6256,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -6093,7 +6264,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -6101,7 +6272,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6109,7 +6280,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -7174,7 +7345,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -7189,13 +7360,13 @@
         <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>56</v>
@@ -7426,7 +7597,7 @@
         <v>47</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>48</v>
@@ -7628,7 +7799,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7639,7 +7810,7 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7650,7 +7821,7 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7764,10 +7935,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8158,19 +8329,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA88EA6-EE41-44F6-8581-617C7977A9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846A4582-EAD6-4442-B54E-81D9F44FF5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="10" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
     <sheet name="market_prices" sheetId="8" r:id="rId18"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="risk" sheetId="17" r:id="rId20"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId21"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId22"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId23"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId24"/>
-    <sheet name="constraints" sheetId="14" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
+    <sheet name="reserve_activation_price" sheetId="27" r:id="rId20"/>
+    <sheet name="risk" sheetId="17" r:id="rId21"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
+    <sheet name="constraints" sheetId="14" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
   <si>
     <t>node</t>
   </si>
@@ -4110,178 +4111,178 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -4298,12 +4299,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
@@ -4328,9 +4329,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -4359,15 +4360,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4392,7 +4393,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4404,7 +4405,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4416,7 +4417,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4428,7 +4429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4440,7 +4441,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4452,7 +4453,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4464,7 +4465,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4476,7 +4477,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4488,7 +4489,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4500,85 +4501,85 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4600,14 +4601,14 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4632,7 +4633,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4646,7 +4647,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4660,7 +4661,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4674,7 +4675,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4688,7 +4689,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4702,7 +4703,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -4716,7 +4717,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -4730,7 +4731,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -4744,7 +4745,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -4758,7 +4759,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
@@ -4766,7 +4767,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
@@ -4774,7 +4775,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -4782,7 +4783,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -4790,7 +4791,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -4798,7 +4799,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -4806,7 +4807,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -4814,7 +4815,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -4822,7 +4823,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -4830,7 +4831,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -4838,7 +4839,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -4846,7 +4847,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -4854,7 +4855,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -4862,7 +4863,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4885,82 +4886,82 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -4979,12 +4980,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5007,7 +5008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5019,7 +5020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5031,7 +5032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5043,7 +5044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5055,7 +5056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5067,7 +5068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5079,7 +5080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5091,7 +5092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5103,7 +5104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5115,85 +5116,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -5213,19 +5214,19 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="7"/>
+    <col min="2" max="2" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -5377,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I5"/>
     </row>
   </sheetData>
@@ -5389,17 +5390,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5434,7 +5435,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5452,7 +5453,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5470,7 +5471,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5488,7 +5489,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5506,7 +5507,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5524,7 +5525,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5542,7 +5543,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5560,7 +5561,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5578,7 +5579,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5610,14 +5611,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5664,7 +5665,7 @@
         <v>134.68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5688,7 +5689,7 @@
         <v>271.23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5712,7 +5713,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5736,7 +5737,7 @@
         <v>220.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5760,7 +5761,7 @@
         <v>171.55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5784,7 +5785,7 @@
         <v>397.42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -5808,7 +5809,7 @@
         <v>191.92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -5832,7 +5833,7 @@
         <v>265.85000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -5856,7 +5857,7 @@
         <v>299.97000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -5896,14 +5897,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5942,7 +5943,7 @@
         <v>14.933999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5964,7 +5965,7 @@
         <v>6.7545000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5986,7 +5987,7 @@
         <v>34.6845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6008,7 +6009,7 @@
         <v>26.847000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6030,7 +6031,7 @@
         <v>44.735500000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6052,7 +6053,7 @@
         <v>31.805999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -6074,7 +6075,7 @@
         <v>64.998999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -6096,7 +6097,7 @@
         <v>61.474499999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -6118,7 +6119,7 @@
         <v>9.1009999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -6140,50 +6141,50 @@
         <v>22.486499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
   </sheetData>
@@ -6200,13 +6201,13 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -6290,6 +6291,270 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016E73B5-BC63-43DF-8AE1-9D3A59563F2A}">
+  <dimension ref="A1:BA11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6297,12 +6562,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -6310,7 +6575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -6318,7 +6583,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -6331,7 +6596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6339,9 +6604,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -6349,7 +6614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -6357,7 +6622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -6370,7 +6635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -6378,162 +6643,162 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6544,7 +6809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6552,155 +6817,155 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6712,7 +6977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6720,155 +6985,155 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -6879,7 +7144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -6887,14 +7152,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6908,7 +7173,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -6922,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -6933,7 +7198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -6941,15 +7206,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6972,7 +7237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6996,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7020,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7044,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7068,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7092,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7116,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
@@ -7140,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
@@ -7164,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
@@ -7188,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
@@ -7212,85 +7477,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -7309,20 +7574,20 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7372,7 +7637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7422,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7472,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -7535,22 +7800,22 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7603,7 +7868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -7656,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -7709,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -7762,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q9" s="3"/>
     </row>
   </sheetData>
@@ -7778,9 +8043,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -7791,7 +8056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7802,7 +8067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7813,7 +8078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7837,9 +8102,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7896,20 +8161,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -7941,7 +8206,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -7973,7 +8238,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -8005,7 +8270,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -8037,7 +8302,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -8069,7 +8334,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -8101,7 +8366,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -8133,10 +8398,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
   </sheetData>
@@ -8153,155 +8418,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -8320,14 +8585,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846A4582-EAD6-4442-B54E-81D9F44FF5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF92B7-050A-4D73-AE04-05BDC27CDC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="10" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -29,17 +29,18 @@
     <sheet name="inflow_blocks" sheetId="22" r:id="rId14"/>
     <sheet name="price" sheetId="4" r:id="rId15"/>
     <sheet name="markets" sheetId="5" r:id="rId16"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId18"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="reserve_activation_price" sheetId="27" r:id="rId20"/>
-    <sheet name="risk" sheetId="17" r:id="rId21"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
-    <sheet name="constraints" sheetId="14" r:id="rId26"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
+    <sheet name="bid_slots" sheetId="28" r:id="rId17"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId18"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId19"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId20"/>
+    <sheet name="reserve_activation_price" sheetId="27" r:id="rId21"/>
+    <sheet name="risk" sheetId="17" r:id="rId22"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId26"/>
+    <sheet name="constraints" sheetId="14" r:id="rId27"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
   <si>
     <t>node</t>
   </si>
@@ -5387,6 +5388,90 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B04689-3483-4889-8469-CD5E284D12AD}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -5603,7 +5688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -5886,310 +5971,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <f>1.05*market_prices!B2</f>
-        <v>16.926000000000002</v>
-      </c>
-      <c r="C2">
-        <f>1.05*market_prices!C2</f>
-        <v>16.506</v>
-      </c>
-      <c r="D2">
-        <f>0.95*market_prices!B2</f>
-        <v>15.314</v>
-      </c>
-      <c r="E2">
-        <f>0.95*market_prices!C2</f>
-        <v>14.933999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <f>1.05*market_prices!B3</f>
-        <v>24.864000000000001</v>
-      </c>
-      <c r="C3">
-        <f>1.05*market_prices!C3</f>
-        <v>7.4655000000000005</v>
-      </c>
-      <c r="D3">
-        <f>0.95*market_prices!B3</f>
-        <v>22.495999999999999</v>
-      </c>
-      <c r="E3">
-        <f>0.95*market_prices!C3</f>
-        <v>6.7545000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <f>1.05*market_prices!B4</f>
-        <v>67.756500000000003</v>
-      </c>
-      <c r="C4">
-        <f>1.05*market_prices!C4</f>
-        <v>38.335499999999996</v>
-      </c>
-      <c r="D4">
-        <f>0.95*market_prices!B4</f>
-        <v>61.3035</v>
-      </c>
-      <c r="E4">
-        <f>0.95*market_prices!C4</f>
-        <v>34.6845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <f>1.05*market_prices!B5</f>
-        <v>46.053000000000004</v>
-      </c>
-      <c r="C5">
-        <f>1.05*market_prices!C5</f>
-        <v>29.673000000000002</v>
-      </c>
-      <c r="D5">
-        <f>0.95*market_prices!B5</f>
-        <v>41.666999999999994</v>
-      </c>
-      <c r="E5">
-        <f>0.95*market_prices!C5</f>
-        <v>26.847000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <f>1.05*market_prices!B6</f>
-        <v>68.197500000000005</v>
-      </c>
-      <c r="C6">
-        <f>1.05*market_prices!C6</f>
-        <v>49.444500000000005</v>
-      </c>
-      <c r="D6">
-        <f>0.95*market_prices!B6</f>
-        <v>61.702500000000001</v>
-      </c>
-      <c r="E6">
-        <f>0.95*market_prices!C6</f>
-        <v>44.735500000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <f>1.05*market_prices!B7</f>
-        <v>89.418000000000006</v>
-      </c>
-      <c r="C7">
-        <f>1.05*market_prices!C7</f>
-        <v>35.153999999999996</v>
-      </c>
-      <c r="D7">
-        <f>0.95*market_prices!B7</f>
-        <v>80.901999999999987</v>
-      </c>
-      <c r="E7">
-        <f>0.95*market_prices!C7</f>
-        <v>31.805999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999537038</v>
-      </c>
-      <c r="B8">
-        <f>1.05*market_prices!B8</f>
-        <v>148.24950000000001</v>
-      </c>
-      <c r="C8">
-        <f>1.05*market_prices!C8</f>
-        <v>71.841000000000008</v>
-      </c>
-      <c r="D8">
-        <f>0.95*market_prices!B8</f>
-        <v>134.13049999999998</v>
-      </c>
-      <c r="E8">
-        <f>0.95*market_prices!C8</f>
-        <v>64.998999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666087964</v>
-      </c>
-      <c r="B9">
-        <f>1.05*market_prices!B9</f>
-        <v>75.852000000000004</v>
-      </c>
-      <c r="C9">
-        <f>1.05*market_prices!C9</f>
-        <v>67.945499999999996</v>
-      </c>
-      <c r="D9">
-        <f>0.95*market_prices!B9</f>
-        <v>68.627999999999986</v>
-      </c>
-      <c r="E9">
-        <f>0.95*market_prices!C9</f>
-        <v>61.474499999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332638889</v>
-      </c>
-      <c r="B10">
-        <f>1.05*market_prices!B10</f>
-        <v>33.516000000000005</v>
-      </c>
-      <c r="C10">
-        <f>1.05*market_prices!C10</f>
-        <v>10.059000000000001</v>
-      </c>
-      <c r="D10">
-        <f>0.95*market_prices!B10</f>
-        <v>30.324000000000002</v>
-      </c>
-      <c r="E10">
-        <f>0.95*market_prices!C10</f>
-        <v>9.1009999999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999189815</v>
-      </c>
-      <c r="B11">
-        <f>1.05*market_prices!B11</f>
-        <v>11.9175</v>
-      </c>
-      <c r="C11">
-        <f>1.05*market_prices!C11</f>
-        <v>24.853500000000004</v>
-      </c>
-      <c r="D11">
-        <f>0.95*market_prices!B11</f>
-        <v>10.782499999999999</v>
-      </c>
-      <c r="E11">
-        <f>0.95*market_prices!C11</f>
-        <v>22.486499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6291,10 +6072,314 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <f>1.05*market_prices!B2</f>
+        <v>16.926000000000002</v>
+      </c>
+      <c r="C2">
+        <f>1.05*market_prices!C2</f>
+        <v>16.506</v>
+      </c>
+      <c r="D2">
+        <f>0.95*market_prices!B2</f>
+        <v>15.314</v>
+      </c>
+      <c r="E2">
+        <f>0.95*market_prices!C2</f>
+        <v>14.933999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <f>1.05*market_prices!B3</f>
+        <v>24.864000000000001</v>
+      </c>
+      <c r="C3">
+        <f>1.05*market_prices!C3</f>
+        <v>7.4655000000000005</v>
+      </c>
+      <c r="D3">
+        <f>0.95*market_prices!B3</f>
+        <v>22.495999999999999</v>
+      </c>
+      <c r="E3">
+        <f>0.95*market_prices!C3</f>
+        <v>6.7545000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <f>1.05*market_prices!B4</f>
+        <v>67.756500000000003</v>
+      </c>
+      <c r="C4">
+        <f>1.05*market_prices!C4</f>
+        <v>38.335499999999996</v>
+      </c>
+      <c r="D4">
+        <f>0.95*market_prices!B4</f>
+        <v>61.3035</v>
+      </c>
+      <c r="E4">
+        <f>0.95*market_prices!C4</f>
+        <v>34.6845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <f>1.05*market_prices!B5</f>
+        <v>46.053000000000004</v>
+      </c>
+      <c r="C5">
+        <f>1.05*market_prices!C5</f>
+        <v>29.673000000000002</v>
+      </c>
+      <c r="D5">
+        <f>0.95*market_prices!B5</f>
+        <v>41.666999999999994</v>
+      </c>
+      <c r="E5">
+        <f>0.95*market_prices!C5</f>
+        <v>26.847000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <f>1.05*market_prices!B6</f>
+        <v>68.197500000000005</v>
+      </c>
+      <c r="C6">
+        <f>1.05*market_prices!C6</f>
+        <v>49.444500000000005</v>
+      </c>
+      <c r="D6">
+        <f>0.95*market_prices!B6</f>
+        <v>61.702500000000001</v>
+      </c>
+      <c r="E6">
+        <f>0.95*market_prices!C6</f>
+        <v>44.735500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <f>1.05*market_prices!B7</f>
+        <v>89.418000000000006</v>
+      </c>
+      <c r="C7">
+        <f>1.05*market_prices!C7</f>
+        <v>35.153999999999996</v>
+      </c>
+      <c r="D7">
+        <f>0.95*market_prices!B7</f>
+        <v>80.901999999999987</v>
+      </c>
+      <c r="E7">
+        <f>0.95*market_prices!C7</f>
+        <v>31.805999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+      <c r="B8">
+        <f>1.05*market_prices!B8</f>
+        <v>148.24950000000001</v>
+      </c>
+      <c r="C8">
+        <f>1.05*market_prices!C8</f>
+        <v>71.841000000000008</v>
+      </c>
+      <c r="D8">
+        <f>0.95*market_prices!B8</f>
+        <v>134.13049999999998</v>
+      </c>
+      <c r="E8">
+        <f>0.95*market_prices!C8</f>
+        <v>64.998999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+      <c r="B9">
+        <f>1.05*market_prices!B9</f>
+        <v>75.852000000000004</v>
+      </c>
+      <c r="C9">
+        <f>1.05*market_prices!C9</f>
+        <v>67.945499999999996</v>
+      </c>
+      <c r="D9">
+        <f>0.95*market_prices!B9</f>
+        <v>68.627999999999986</v>
+      </c>
+      <c r="E9">
+        <f>0.95*market_prices!C9</f>
+        <v>61.474499999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+      <c r="B10">
+        <f>1.05*market_prices!B10</f>
+        <v>33.516000000000005</v>
+      </c>
+      <c r="C10">
+        <f>1.05*market_prices!C10</f>
+        <v>10.059000000000001</v>
+      </c>
+      <c r="D10">
+        <f>0.95*market_prices!B10</f>
+        <v>30.324000000000002</v>
+      </c>
+      <c r="E10">
+        <f>0.95*market_prices!C10</f>
+        <v>9.1009999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
+      </c>
+      <c r="B11">
+        <f>1.05*market_prices!B11</f>
+        <v>11.9175</v>
+      </c>
+      <c r="C11">
+        <f>1.05*market_prices!C11</f>
+        <v>24.853500000000004</v>
+      </c>
+      <c r="D11">
+        <f>0.95*market_prices!B11</f>
+        <v>10.782499999999999</v>
+      </c>
+      <c r="E11">
+        <f>0.95*market_prices!C11</f>
+        <v>22.486499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016E73B5-BC63-43DF-8AE1-9D3A59563F2A}">
   <dimension ref="A1:BA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -6554,7 +6639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6596,7 +6681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6635,7 +6720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -6809,7 +6894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6977,7 +7062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -7144,7 +7229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -7198,7 +7283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:G25"/>
   <sheetViews>

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF92B7-050A-4D73-AE04-05BDC27CDC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF4337-CC57-41E9-8DCE-8B946D0FEA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="6" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
   <si>
     <t>node</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>node2</t>
-  </si>
-  <si>
-    <t>diff_coeff</t>
   </si>
   <si>
     <t>state_min</t>
@@ -4294,26 +4291,82 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F1FEF7-A337-4ADD-8F2A-03D982D23844}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999189815</v>
       </c>
     </row>
   </sheetData>
@@ -5391,8 +5444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B04689-3483-4889-8469-CD5E284D12AD}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5490,16 +5543,16 @@
         <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5998,7 +6051,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6006,7 +6059,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6014,7 +6067,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6022,7 +6075,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6030,7 +6083,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6038,7 +6091,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -6046,7 +6099,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -6054,7 +6107,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6062,7 +6115,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6394,16 +6447,16 @@
         <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="F1"/>
       <c r="G1"/>
@@ -7695,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -7710,13 +7763,13 @@
         <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>56</v>
@@ -7947,7 +8000,7 @@
         <v>47</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>48</v>
@@ -8285,10 +8338,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8685,13 +8738,13 @@
         <v>102</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF4337-CC57-41E9-8DCE-8B946D0FEA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB90CA-9288-4343-9187-C875163F1D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="6" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
   <si>
     <t>node</t>
   </si>
@@ -134,9 +134,6 @@
     <t>sink</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>reserve</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
@@ -377,9 +371,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>delay_t</t>
   </si>
   <si>
@@ -438,6 +429,18 @@
   </si>
   <si>
     <t>reserve_down,s2</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -4116,7 +4119,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4293,7 +4296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F1FEF7-A337-4ADD-8F2A-03D982D23844}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4304,7 +4307,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4380,22 +4383,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4424,13 +4427,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4664,13 +4667,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4948,7 +4951,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5041,13 +5044,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5265,7 +5268,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5282,40 +5285,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5323,22 +5326,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -5358,25 +5361,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="7">
         <v>0.2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -5396,25 +5399,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7">
         <v>0.2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5455,7 +5458,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5540,19 +5543,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5758,25 +5761,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6043,15 +6046,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6059,7 +6062,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6067,7 +6070,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6075,7 +6078,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6083,7 +6086,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6091,7 +6094,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -6099,7 +6102,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -6107,7 +6110,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6115,7 +6118,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6141,19 +6144,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6444,19 +6447,19 @@
   <sheetData>
     <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="F1"/>
       <c r="G1"/>
@@ -6707,15 +6710,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -6723,7 +6726,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6746,15 +6749,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -6762,7 +6765,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -6788,7 +6791,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6962,7 +6965,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -7130,7 +7133,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -7299,24 +7302,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -7354,25 +7357,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7709,7 +7712,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7736,7 +7739,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -7748,7 +7751,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -7757,22 +7760,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -7877,7 +7880,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -7961,13 +7964,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -7982,33 +7985,33 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -8061,7 +8064,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -8114,7 +8117,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -8177,21 +8180,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8202,7 +8205,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8210,10 +8213,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8221,10 +8224,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -8296,7 +8299,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8323,13 +8326,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
@@ -8338,15 +8341,15 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
@@ -8378,7 +8381,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -8410,13 +8413,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -8442,7 +8445,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>23</v>
@@ -8474,7 +8477,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -8506,13 +8509,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -8563,7 +8566,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -8732,19 +8735,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/example_model.xlsx
+++ b/input_data/example_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB90CA-9288-4343-9187-C875163F1D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCF147E-52C5-4D97-981B-C870745EFBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="128">
   <si>
     <t>node</t>
   </si>
@@ -407,9 +407,6 @@
     <t>use_ramp_dummy_variables</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -441,6 +438,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -5288,7 +5291,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -5546,16 +5549,16 @@
         <v>24</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6032,10 +6035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5112C03D-AA3C-4BDB-99A8-E263BCF7A011}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6094,7 +6097,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -6102,7 +6105,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -6110,7 +6113,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6118,7 +6121,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6450,16 +6461,16 @@
         <v>24</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="F1"/>
       <c r="G1"/>
@@ -7772,7 +7783,7 @@
         <v>102</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>54</v>
@@ -8180,7 +8191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8188,7 +8199,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>68</v>
@@ -8332,7 +8343,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
